--- a/Plotting/filtered_data.xlsx
+++ b/Plotting/filtered_data.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,8 +545,10 @@
           <t>Short-term</t>
         </is>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>2040</v>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Mid-term</t>
+        </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
@@ -558,11 +560,15 @@
           <t>Short-term</t>
         </is>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>2040</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>2050</v>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Mid-term</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Long-term</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -606,10 +612,8 @@
       <c r="J4" t="n">
         <v>496</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K4" t="n">
+        <v>305</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -690,10 +694,8 @@
       <c r="M5" t="n">
         <v>499</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -736,26 +738,20 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -776,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>695</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -799,10 +795,8 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K7" t="n">
+        <v>1055</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -881,17 +875,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1078</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1078</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -909,16 +899,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="G9" t="n">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -927,28 +917,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>716</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>718</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>782</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -986,10 +970,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I10" t="n">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1037,46 +1021,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E11" t="n">
-        <v>941</v>
+        <v>465</v>
       </c>
       <c r="F11" t="n">
-        <v>1275</v>
+        <v>190</v>
       </c>
       <c r="G11" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" t="n">
-        <v>631</v>
+        <v>133</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>289</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>282</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="M11" t="n">
-        <v>186</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1026</v>
       </c>
     </row>
     <row r="12">
@@ -1114,10 +1092,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" t="n">
-        <v>773</v>
+        <v>274</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1165,10 +1143,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E13" t="n">
-        <v>860</v>
+        <v>824</v>
       </c>
       <c r="F13" t="n">
         <v>803</v>
@@ -1183,12 +1161,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>847</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>845</v>
+      </c>
+      <c r="K13" t="n">
+        <v>806</v>
       </c>
       <c r="L13" t="n">
         <v>803</v>
@@ -1196,15 +1172,11 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1263,15 +1235,11 @@
       <c r="M14" t="n">
         <v>813</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N14" t="n">
+        <v>813</v>
+      </c>
+      <c r="O14" t="n">
+        <v>813</v>
       </c>
     </row>
     <row r="15">
@@ -1309,10 +1277,8 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1320,15 +1286,11 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1337,12 +1299,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Direct methanol synthesis from \ce{CO2}</t>
+          <t>Methanol synthesis from syngas existing</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h</t>
+          <t>t syngas/h</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1350,22 +1312,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1377,8 +1347,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1390,10 +1362,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O16" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1402,25 +1372,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>\acs{MTO}</t>
+          <t>Direct methanol synthesis from \ce{CO2}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>t methanol/h</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>496</v>
+          <t>t \ce{CO2}/h</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>567</v>
-      </c>
-      <c r="G17" t="n">
-        <v>496</v>
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1428,29 +1402,27 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>567</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1459,7 +1431,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>\acs{MTO} existing</t>
+          <t>\acs{MTO}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1467,61 +1439,41 @@
           <t>t methanol/h</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D18" t="n">
+        <v>496</v>
+      </c>
+      <c r="E18" t="n">
+        <v>482</v>
+      </c>
+      <c r="F18" t="n">
+        <v>377</v>
+      </c>
+      <c r="G18" t="n">
+        <v>496</v>
       </c>
       <c r="H18" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>496</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1530,55 +1482,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>\acs{EDH}</t>
+          <t>\acs{MTO} existing</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>t ethanol/h</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
+          <t>t methanol/h</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1587,28 +1551,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>\acs{PDH}</t>
+          <t>\acs{EDH}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>t propane/h</t>
+          <t>t ethanol/h</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1616,10 +1580,8 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1627,15 +1589,11 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1644,7 +1602,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>\acs{PDH} existing</t>
+          <t>\acs{PDH}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1652,61 +1610,41 @@
           <t>t propane/h</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>64</v>
       </c>
       <c r="H21" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>101</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>139</v>
+      </c>
+      <c r="O21" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1715,55 +1653,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>\acs{MPW}-to-methanol</t>
+          <t>\acs{PDH} existing</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>t MPW/h</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>338</v>
-      </c>
-      <c r="E22" t="n">
-        <v>381</v>
-      </c>
-      <c r="F22" t="n">
-        <v>385</v>
-      </c>
-      <c r="G22" t="n">
-        <v>338</v>
+          <t>t propane/h</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>385</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O22" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -1772,7 +1722,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>\acs{MPW}-to-methanol existing</t>
+          <t>\acs{MPW}-to-methanol</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1780,61 +1730,41 @@
           <t>t MPW/h</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D23" t="n">
+        <v>338</v>
+      </c>
+      <c r="E23" t="n">
+        <v>328</v>
+      </c>
+      <c r="F23" t="n">
+        <v>256</v>
+      </c>
+      <c r="G23" t="n">
+        <v>338</v>
       </c>
       <c r="H23" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>338</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1843,12 +1773,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>\ce{CO2} electrolysis</t>
+          <t>\acs{MPW}-to-methanol existing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h</t>
+          <t>t MPW/h</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1856,11 +1786,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>53</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1868,10 +1802,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="I24" t="n">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1883,8 +1817,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>53</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1908,7 +1844,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>\ce{CO2} electrolysis existing</t>
+          <t>\ce{CO2} electrolysis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1921,58 +1857,44 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E25" t="n">
+        <v>106</v>
+      </c>
+      <c r="F25" t="n">
+        <v>156</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H25" t="n">
+        <v>111</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K25" t="n">
+        <v>151</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N25" t="n">
+        <v>161</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1981,55 +1903,69 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>\acs{ASU}</t>
+          <t>\ce{CO2} electrolysis existing</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MW electricity</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>29</v>
-      </c>
-      <c r="E26" t="n">
-        <v>22</v>
-      </c>
-      <c r="F26" t="n">
-        <v>27</v>
-      </c>
-      <c r="G26" t="n">
-        <v>28</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+          <t>t \ce{CO2}/h</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>29</v>
+        <v>111</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>27</v>
-      </c>
-      <c r="M26" t="n">
-        <v>28</v>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O26" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="27">
@@ -2038,7 +1974,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>\acs{ASU} existing</t>
+          <t>\acs{ASU}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2046,61 +1982,41 @@
           <t>MW electricity</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D27" t="n">
+        <v>29</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>27</v>
+      </c>
+      <c r="G27" t="n">
+        <v>28</v>
       </c>
       <c r="H27" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>28</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>29</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -2109,45 +2025,59 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gas-fired boiler</t>
+          <t>\acs{ASU} existing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MW gas</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>133</v>
-      </c>
-      <c r="E28" t="n">
-        <v>103</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>125</v>
+          <t>MW electricity</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2166,7 +2096,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gas-fired boiler existing</t>
+          <t>Gas-fired boiler</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2174,61 +2104,41 @@
           <t>MW gas</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D29" t="n">
+        <v>128</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>124</v>
       </c>
       <c r="H29" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>125</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>44</v>
+      </c>
+      <c r="N29" t="n">
+        <v>413</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2237,55 +2147,65 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electric boiler</t>
+          <t>Gas-fired boiler existing</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MW electricity</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>67</v>
-      </c>
-      <c r="E30" t="n">
-        <v>73</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>64</v>
+          <t>MW gas</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>44</v>
+      </c>
+      <c r="O30" t="n">
+        <v>457</v>
       </c>
     </row>
     <row r="31">
@@ -2294,7 +2214,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electric boiler existing</t>
+          <t>Electric boiler</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2302,61 +2222,41 @@
           <t>MW electricity</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D31" t="n">
+        <v>65</v>
+      </c>
+      <c r="E31" t="n">
+        <v>138</v>
+      </c>
+      <c r="F31" t="n">
+        <v>123</v>
+      </c>
+      <c r="G31" t="n">
+        <v>64</v>
       </c>
       <c r="H31" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>64</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>126</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>41</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="32">
@@ -2365,55 +2265,65 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammonia tank</t>
+          <t>Electric boiler existing</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8044</v>
-      </c>
-      <c r="E32" t="n">
-        <v>11440</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4639</v>
+          <t>MW electricity</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>4820</v>
+        <v>64</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>8554</v>
+        <v>64</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5547</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>41</v>
+      </c>
+      <c r="O32" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -2422,7 +2332,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammonia tank existing</t>
+          <t>Ammonia tank</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2430,61 +2340,41 @@
           <t>tonne</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D33" t="n">
+        <v>7224</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5735</v>
+      </c>
+      <c r="F33" t="n">
+        <v>135</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4527</v>
       </c>
       <c r="H33" t="n">
-        <v>4639</v>
+        <v>4589</v>
       </c>
       <c r="I33" t="n">
-        <v>9459</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8031</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1362</v>
+      </c>
+      <c r="L33" t="n">
+        <v>76</v>
+      </c>
+      <c r="M33" t="n">
+        <v>28</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1128</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2493,55 +2383,65 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Li-ion battery</t>
+          <t>Ammonia tank existing</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MWh</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1201</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6414</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1628</v>
+          <t>tonne</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>6414</v>
+        <v>4527</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1236</v>
+        <v>9116</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1692</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>28</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1157</v>
       </c>
     </row>
     <row r="35">
@@ -2550,7 +2450,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Li-ion battery existing</t>
+          <t>Li-ion battery</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2558,61 +2458,41 @@
           <t>MWh</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D35" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5822</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1638</v>
       </c>
       <c r="H35" t="n">
-        <v>1628</v>
+        <v>6414</v>
       </c>
       <c r="I35" t="n">
-        <v>8042</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1338</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5031</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>751</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4350</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2621,55 +2501,65 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>\ce{CO2} buffer storage</t>
+          <t>Li-ion battery existing</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
+          <t>MWh</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
+        <v>8052</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>751</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5102</v>
       </c>
     </row>
     <row r="37">
@@ -2678,55 +2568,49 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hydrogen tank</t>
+          <t>\ce{CO2} buffer storage</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MWh</t>
+          <t>tonne</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>497</v>
+        <v>3863</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G37" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2477</v>
+        <v>9813</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>53</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>164</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>213</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4817</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2735,12 +2619,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hydrogen tank existing</t>
+          <t>\ce{CO2} buffer storage existing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MWh</t>
+          <t>tonne</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2763,11 +2647,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>162</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>2639</v>
+        <v>9813</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2789,15 +2675,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4823</v>
       </c>
     </row>
     <row r="39">
@@ -2806,55 +2688,49 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ethylene tank</t>
+          <t>Hydrogen tank</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MWh</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="E39" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8341</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>124</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2863,12 +2739,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ethylene tank existing</t>
+          <t>Hydrogen tank existing</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MWh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2892,10 +2768,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>8507</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2934,7 +2810,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Propylene tank</t>
+          <t>Ethylene tank</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2946,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>58</v>
+        <v>3273</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>321</v>
+        <v>1365</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2963,26 +2839,20 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K41" t="n">
+        <v>836</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M41" t="n">
-        <v>7</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="N41" t="n">
+        <v>500</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2991,7 +2861,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Propylene tank existing</t>
+          <t>Ethylene tank existing</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3025,7 +2895,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>321</v>
+        <v>1365</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3047,15 +2917,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>506</v>
       </c>
     </row>
     <row r="43">
@@ -3064,55 +2930,49 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Electricity grid import</t>
+          <t>Propylene tank</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MW (\% of max)</t>
+          <t>tonne</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1876</v>
+        <v>3020</v>
       </c>
       <c r="F43" t="n">
-        <v>2067</v>
+        <v>19</v>
       </c>
       <c r="G43" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2000</v>
+        <v>4448</v>
       </c>
       <c r="I43" t="n">
-        <v>2393</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>750</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9086</v>
       </c>
       <c r="L43" t="n">
-        <v>2067</v>
+        <v>130</v>
       </c>
       <c r="M43" t="n">
-        <v>750</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9251</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3121,55 +2981,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>\ce{CO2} T\&amp;S</t>
+          <t>Propylene tank existing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h (\% of max)</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>96</v>
-      </c>
-      <c r="E44" t="n">
-        <v>22</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>106</v>
-      </c>
-      <c r="H44" t="n">
-        <v>106</v>
+          <t>tonne</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>100</v>
+        <v>4448</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>113</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9257</v>
       </c>
     </row>
     <row r="45">
@@ -3178,55 +3050,49 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MPW import</t>
+          <t>Electricity grid import</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>t MPW/h (\% of max)</t>
+          <t>MW (\% of max)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>338</v>
+        <v>750</v>
       </c>
       <c r="E45" t="n">
-        <v>381</v>
+        <v>2000</v>
       </c>
       <c r="F45" t="n">
-        <v>385</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="n">
-        <v>338</v>
+        <v>750</v>
       </c>
       <c r="H45" t="n">
-        <v>338</v>
+        <v>2000</v>
       </c>
       <c r="I45" t="n">
-        <v>338</v>
+        <v>2500</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2000</v>
       </c>
       <c r="L45" t="n">
-        <v>385</v>
+        <v>2500</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="46">
@@ -3235,55 +3101,49 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Methane import</t>
+          <t>\ce{CO2} T\&amp;S</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MW gas</t>
+          <t>t \ce{CO2}/h (\% of max)</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>795</v>
+        <v>95</v>
       </c>
       <c r="E46" t="n">
-        <v>419</v>
+        <v>114</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G46" t="n">
-        <v>850</v>
+        <v>107</v>
       </c>
       <c r="H46" t="n">
-        <v>821</v>
+        <v>114</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J46" t="n">
-        <v>335</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="K46" t="n">
+        <v>114</v>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>418</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>114</v>
+      </c>
+      <c r="N46" t="n">
+        <v>82</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3292,39 +3152,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bio-methane import</t>
+          <t>MPW import</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MW gas</t>
+          <t>t MPW/h (\% of max)</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="E47" t="n">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="H47" t="n">
-        <v>752</v>
+        <v>338</v>
       </c>
       <c r="I47" t="n">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K47" t="n">
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3332,15 +3190,11 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3349,55 +3203,49 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DAC-\ce{CO2} import</t>
+          <t>Methane import</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h</t>
+          <t>MW gas</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="F48" t="n">
-        <v>97</v>
+        <v>739</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="I48" t="n">
-        <v>37</v>
+        <v>757</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>337</v>
+      </c>
+      <c r="K48" t="n">
+        <v>851</v>
       </c>
       <c r="L48" t="n">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>733</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1532</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -3406,55 +3254,151 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Bio-methane import</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MW gas</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DAC-\ce{CO2} import</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>t \ce{CO2}/h</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>55</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Bio-propane import</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>MW</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>64</v>
       </c>
-      <c r="E49" t="n">
-        <v>40</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>64</v>
       </c>
-      <c r="H49" t="n">
-        <v>64</v>
-      </c>
-      <c r="I49" t="n">
-        <v>41</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>139</v>
+      </c>
+      <c r="O51" t="n">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
